--- a/medicine/Sexualité et sexologie/Strip_poker/Strip_poker.xlsx
+++ b/medicine/Sexualité et sexologie/Strip_poker/Strip_poker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le strip poker est une variante du poker, joué fréquemment selon la règle du Texas Hold'em. Le principe est que, à chaque fois que le joueur n’a plus de jetons, il enlève un vêtement en échange d’une nouvelle cave. Lorsqu’il n’a plus ni argent, ni vêtement, il est éliminé. À chaque tour de jeu, chacun des éliminés a un gage, choisi par le gagnant de la manche.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'il ait été suggéré que le strip poker soit originaire de La Nouvelle-Orléans à la même époque que les débuts du poker, au XIXe siècle, et qu'il ait été joué à ce moment-là dans des maisons closes[1], l'existence du terme est seulement attestée depuis 1916[2]. Le strip poker a probablement commencé comme une blague entre garçons, et jusqu'à la fin des années 1930, la version courante actuelle (hommes et femmes ensemble) était appelé en Angleterre « strip poker mixte » pour la différencier de la version entre hommes, version non sexuelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il ait été suggéré que le strip poker soit originaire de La Nouvelle-Orléans à la même époque que les débuts du poker, au XIXe siècle, et qu'il ait été joué à ce moment-là dans des maisons closes, l'existence du terme est seulement attestée depuis 1916. Le strip poker a probablement commencé comme une blague entre garçons, et jusqu'à la fin des années 1930, la version courante actuelle (hommes et femmes ensemble) était appelé en Angleterre « strip poker mixte » pour la différencier de la version entre hommes, version non sexuelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1982, une compagnie américaine de jeux vidéo, Artworx, a produit un jeu de Strip Poker pour l'ordinateur Apple II. Il a été ensuite adapté pour d'autres ordinateurs, et est disponible. D'autres jeux suivirent[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, une compagnie américaine de jeux vidéo, Artworx, a produit un jeu de Strip Poker pour l'ordinateur Apple II. Il a été ensuite adapté pour d'autres ordinateurs, et est disponible. D'autres jeux suivirent.
 </t>
         </is>
       </c>
